--- a/data_analyzed/Energy (kcal)/Energy (kcal)_trainings_conditioning.xlsx
+++ b/data_analyzed/Energy (kcal)/Energy (kcal)_trainings_conditioning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,212 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Brad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brooke Hughes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>C. McKendrick</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>E. Lewis</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Goblirsch</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Grawl</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Longo</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Mak Dutch</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Marley Dutch</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>McConnell</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Vivadelli</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Wilson</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -525,544 +655,1086 @@
         <v>44857</v>
       </c>
       <c r="B2" t="n">
+        <v>458.8442</v>
+      </c>
+      <c r="C2" t="n">
         <v>480.4916</v>
-      </c>
-      <c r="C2" t="n">
-        <v>471.9257</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>566.8200000000001</v>
+        <v>471.9257</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>420.7625</v>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>470.4952</v>
-      </c>
-      <c r="K2" t="n">
-        <v>468.5108</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>445.9257</v>
+        <v>473.1118</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
+        <v>469.0976</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566.8200000000001</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>399.1875</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>461.0126</v>
+      </c>
+      <c r="V2" t="n">
+        <v>587.9873</v>
+      </c>
+      <c r="W2" t="n">
+        <v>453.9598</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>470.4952</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>498.3131</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>468.5108</v>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>445.9257</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>378.9701</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
         <v>482.164</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="n">
+        <v>398.788</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>163.2836</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>443.41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>44950</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>267.494</v>
-      </c>
-      <c r="C3" t="n">
-        <v>285.0971</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>281.4433</v>
+        <v>285.0971</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>210.9564</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>278.8233</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>312.3275</v>
+        <v>270.1462</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
+        <v>291.2609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>281.4433</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>278.2721</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>268.3977</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>278.8233</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>312.3275</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
         <v>277.8795</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>275.7305</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>106.2029</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>44952</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>520.3026</v>
-      </c>
-      <c r="C4" t="n">
-        <v>620.9293</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>620.9293</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>485.9929</v>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>583.2635</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>629.2655</v>
+        <v>635.1106</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
+        <v>641.6876</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>612.932</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>583.2635</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>605.3218000000001</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>629.2655</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
         <v>274.8639</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="n">
+        <v>546.8416999999999</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>240.0865</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44957</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>328.3417</v>
-      </c>
-      <c r="C5" t="n">
-        <v>441.4715</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>472.8369</v>
+        <v>441.4715</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>428.5394</v>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>514.8621000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>484.6384</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>373.3962</v>
+        <v>485.9128</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
+        <v>501.0158</v>
+      </c>
+      <c r="O5" t="n">
+        <v>472.8369</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>468.7233</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>514.8621000000001</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>465.076</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>484.6384</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>373.3962</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
         <v>434.121</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>474.1955</v>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>175.6107</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44964</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>377.2144</v>
-      </c>
-      <c r="C6" t="n">
-        <v>695.0407</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>645.7843</v>
+        <v>695.0407</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>332.9313</v>
+      </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>654.3108999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>613.4001</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>355.4128</v>
+        <v>446.033</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
+        <v>638.9636</v>
+      </c>
+      <c r="O6" t="n">
+        <v>645.7843</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>106.0721</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>654.3108999999999</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>635.4389</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>613.4001</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>355.4128</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
         <v>342.9479</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>641.3602</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>129.6394</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44967</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>459.5072</v>
-      </c>
-      <c r="C7" t="n">
-        <v>576.2444</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>576.2444</v>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>341.3767</v>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>548.8839</v>
-      </c>
-      <c r="K7" t="n">
-        <v>494.8725</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>403.2813</v>
+        <v>490.4445</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
+        <v>489.1116</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>230.4961</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>548.8839</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>251.8433</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>494.8725</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>403.2813</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
         <v>449.0039</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>485.8459</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>185.598</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44971</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>441.7685</v>
-      </c>
-      <c r="C8" t="n">
-        <v>346.3609</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>396.6163</v>
+        <v>346.3609</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>131.8617</v>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>491.1117</v>
-      </c>
-      <c r="K8" t="n">
-        <v>255.5056</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>441.1149</v>
+        <v>449.3437</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
+        <v>470.408</v>
+      </c>
+      <c r="O8" t="n">
+        <v>396.6163</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>330.0489</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>491.1117</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>452.6173</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>255.5056</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>441.1149</v>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="n">
         <v>234.5319</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>402.6117</v>
+      </c>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>176.1404</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44988</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>585.3476000000001</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>569.9475</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>537.7096</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>569.9475</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>538.254</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>606.8518</v>
+      </c>
+      <c r="AF9" t="n">
         <v>522.8565</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="n">
         <v>645.1086</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="n">
         <v>513.4949</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="n">
+        <v>557.522</v>
+      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>181.8697</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44991</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>787.6833</v>
-      </c>
-      <c r="C10" t="n">
-        <v>747.6358</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>747.6358</v>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>804.0684</v>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>782.9885</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
         <v>796.3021</v>
       </c>
-      <c r="K10" t="n">
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>743.9638</v>
+      </c>
+      <c r="AF10" t="n">
         <v>789.1412</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AG10" t="n">
+        <v>927.4906</v>
+      </c>
+      <c r="AH10" t="n">
         <v>568.0734</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="n">
         <v>831.6939</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="n">
         <v>305.8389</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44992</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
         <v>244.6387</v>
-      </c>
-      <c r="C11" t="n">
-        <v>358.8776</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>382.125</v>
+        <v>358.8776</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>430.9309</v>
-      </c>
-      <c r="K11" t="n">
-        <v>423.6196</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>364.7655</v>
+        <v>252.4831</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
+        <v>325.926</v>
+      </c>
+      <c r="O11" t="n">
+        <v>382.125</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>363.4387</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>430.9309</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>237.6697</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>423.6196</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>288.3881</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>364.7655</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
         <v>272.1944</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="n">
         <v>132.7382</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B12" t="n">
-        <v>620.6416</v>
-      </c>
+        <v>45005</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>541.5132</v>
+        <v>220.897</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>611.314</v>
+        <v>214.324</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>221.7135</v>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>657.2651</v>
-      </c>
-      <c r="K12" t="n">
-        <v>426.5851</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>667.0465</v>
+        <v>249.1458</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>536.2152</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>201.9396</v>
-      </c>
+        <v>281.0088</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240.4112</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>245.9791</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>247.4522</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>227.9505</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>238.9671</v>
+      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>207.6235</v>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="n">
+        <v>238.0223</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="n">
+        <v>227.8689</v>
+      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45024</v>
-      </c>
-      <c r="B13" t="n">
-        <v>429.701</v>
-      </c>
+        <v>45022</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>431.1581</v>
+        <v>620.6416</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>468.2866</v>
+        <v>541.5132</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>515.9459000000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>299.6699</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>473.5266</v>
+        <v>618.5239</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>162.4702</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>611.314</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>545.1718</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>657.2651</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>628.8841</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>426.5851</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>598.9696</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>667.0465</v>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="n">
+        <v>536.2152</v>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="n">
+        <v>538.1025</v>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="n">
+        <v>201.9396</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B14" t="n">
-        <v>380.49</v>
-      </c>
+        <v>45024</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>360.8627</v>
+        <v>429.701</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>442.1747</v>
+        <v>431.1581</v>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>348.5718</v>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>428.1124</v>
-      </c>
-      <c r="K14" t="n">
-        <v>315.8096</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>466.8864</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>146.0569</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>468.2866</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>391.4156</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>515.9459000000001</v>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>299.6699</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>307.4996</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>473.5266</v>
+      </c>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="n">
+        <v>452.9583</v>
+      </c>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>162.4702</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45034</v>
-      </c>
-      <c r="B15" t="n">
-        <v>220.055</v>
-      </c>
+        <v>45025</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>208.4536</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>200.4074</v>
-      </c>
-      <c r="K15" t="n">
-        <v>194.0802</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>249.5775</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>79.9413</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="n">
+        <v>414.2793</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45147</v>
-      </c>
-      <c r="B16" t="n">
-        <v>709.2317</v>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>700.6318</v>
+        <v>380.49</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>720.2248</v>
+        <v>360.8627</v>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>742.8626</v>
-      </c>
-      <c r="J16" t="n">
-        <v>765.778</v>
-      </c>
-      <c r="K16" t="n">
-        <v>620.5537</v>
-      </c>
+      <c r="H16" t="n">
+        <v>291.5614</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>630.1618</v>
+        <v>430.8631</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>652.9826</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>280.6419</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>442.1747</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>358.7882</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>428.1124</v>
+      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>315.8096</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>424.5578</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="n">
+        <v>466.8864</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>290.4298</v>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v>146.0569</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45148</v>
+        <v>45034</v>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>220.055</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1070,192 +1742,346 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>207.0513</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>201.7451</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>208.4536</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>200.4074</v>
+      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="n">
+        <v>194.0802</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>200.8609</v>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>249.5775</v>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>209.3099</v>
+      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="n">
+        <v>79.9413</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45150</v>
-      </c>
-      <c r="B18" t="n">
-        <v>311.021</v>
-      </c>
+        <v>45147</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>329.5608</v>
-      </c>
-      <c r="D18" t="n">
-        <v>324.0468</v>
-      </c>
-      <c r="E18" t="n">
-        <v>317.3938</v>
-      </c>
+        <v>709.2317</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>337.2772</v>
+        <v>700.6318</v>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>330.3684</v>
-      </c>
-      <c r="I18" t="n">
-        <v>324.3008</v>
-      </c>
-      <c r="J18" t="n">
-        <v>215.2029</v>
-      </c>
-      <c r="K18" t="n">
-        <v>314.0517</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>324.1785</v>
-      </c>
-      <c r="M18" t="n">
-        <v>311.3427</v>
-      </c>
+        <v>692.3049999999999</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>353.3779</v>
+        <v>705.2473</v>
       </c>
       <c r="O18" t="n">
-        <v>338.9084</v>
-      </c>
-      <c r="P18" t="n">
-        <v>116.0456</v>
-      </c>
+        <v>720.2248</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>468.0481</v>
+      </c>
+      <c r="X18" t="n">
+        <v>742.8626</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>765.778</v>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="n">
+        <v>380.5143</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>620.5537</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>630.1618</v>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="n">
+        <v>652.9826</v>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v>280.6419</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45337</v>
+        <v>45148</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>332.3524</v>
-      </c>
-      <c r="D19" t="n">
-        <v>335.2264</v>
-      </c>
-      <c r="E19" t="n">
-        <v>333.1892</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>327.3312</v>
-      </c>
-      <c r="H19" t="n">
-        <v>275.4699</v>
-      </c>
-      <c r="I19" t="n">
-        <v>330.8412</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>345.2442</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>364.769</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>351.4483</v>
+        <v>256.5677</v>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>133.9747</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>216.5853</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>207.0513</v>
+      </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B20" t="n">
-        <v>280.7779</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>215.4929</v>
-      </c>
-      <c r="E20" t="n">
-        <v>270.8094</v>
-      </c>
+        <v>45150</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>311.021</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>291.752</v>
-      </c>
-      <c r="G20" t="n">
-        <v>351.483</v>
-      </c>
-      <c r="H20" t="n">
-        <v>272.491</v>
-      </c>
+        <v>329.5608</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>273.0672</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>382.7048</v>
+      </c>
+      <c r="J20" t="n">
+        <v>324.0468</v>
+      </c>
       <c r="K20" t="n">
-        <v>232.711</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>265.4785</v>
-      </c>
+        <v>317.3938</v>
+      </c>
+      <c r="L20" t="n">
+        <v>342.8475</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>165.6911</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>99.21729999999999</v>
-      </c>
+        <v>441.5049</v>
+      </c>
+      <c r="O20" t="n">
+        <v>337.2772</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>330.3684</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>338.8314</v>
+      </c>
+      <c r="X20" t="n">
+        <v>324.3008</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>322.094</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>215.2029</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>318.6142</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>314.0517</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>344.369</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>324.1785</v>
+      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>311.3427</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>353.3779</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>338.9084</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v>116.0456</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B21" t="n">
-        <v>330.8616</v>
-      </c>
+        <v>45337</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>324.5055</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>310.6522</v>
-      </c>
-      <c r="H21" t="n">
-        <v>421.4766</v>
-      </c>
-      <c r="I21" t="n">
-        <v>307.0245</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>332.3524</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>335.2264</v>
+      </c>
+      <c r="K21" t="n">
+        <v>333.1892</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>324.053</v>
-      </c>
-      <c r="N21" t="n">
-        <v>312.7544</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>128.665</v>
+        <v>327.3312</v>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>275.4699</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>330.8412</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>345.2442</v>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>364.769</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>351.4483</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>133.9747</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>280.7779</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1263,569 +2089,1158 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>338.2386</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>215.4929</v>
+      </c>
+      <c r="K22" t="n">
+        <v>270.8094</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>291.752</v>
+      </c>
+      <c r="P22" t="n">
+        <v>351.483</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>272.491</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>273.0672</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>232.711</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>265.4785</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>165.6911</v>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v>99.21729999999999</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B23" t="n">
-        <v>353.2052</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>45344</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>330.8616</v>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>365.745</v>
-      </c>
-      <c r="F23" t="n">
-        <v>392.8446</v>
-      </c>
-      <c r="G23" t="n">
-        <v>412.553</v>
-      </c>
-      <c r="H23" t="n">
-        <v>381.7367</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>380.2317</v>
+        <v>324.5055</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>162.3768</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>145.9304</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>273.4257</v>
-      </c>
+        <v>310.6522</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>421.4766</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>307.0245</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>324.053</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>312.7544</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v>128.665</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B24" t="n">
-        <v>367.0741</v>
-      </c>
+        <v>45345</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>394.4611</v>
-      </c>
-      <c r="F24" t="n">
-        <v>428.1472</v>
-      </c>
-      <c r="G24" t="n">
-        <v>385.3374</v>
-      </c>
-      <c r="H24" t="n">
-        <v>375.9893</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>366.8571</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
-        <v>207.1654</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>145.6667</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>338.2386</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B25" t="n">
-        <v>268.6699</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>45351</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>353.2052</v>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>395.8868</v>
-      </c>
-      <c r="F25" t="n">
-        <v>426.1357</v>
-      </c>
-      <c r="G25" t="n">
-        <v>391.1858</v>
-      </c>
-      <c r="H25" t="n">
-        <v>391.4357</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>365.745</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>406.7132</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>392.8446</v>
+      </c>
       <c r="P25" t="n">
-        <v>153.7853</v>
+        <v>412.553</v>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>381.7367</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>380.2317</v>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="n">
+        <v>162.3768</v>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="n">
+        <v>145.9304</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>273.4257</v>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B26" t="n">
-        <v>271.2137</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>45356</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>367.0741</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>328.4411</v>
-      </c>
-      <c r="F26" t="n">
-        <v>298.7625</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>321.7701</v>
-      </c>
-      <c r="I26" t="n">
-        <v>285.4398</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>292.3509</v>
+        <v>394.4611</v>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>311.5433</v>
-      </c>
-      <c r="N26" t="n">
-        <v>223.5746</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>428.1472</v>
+      </c>
       <c r="P26" t="n">
-        <v>103.4088</v>
+        <v>385.3374</v>
       </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>375.9893</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>366.8571</v>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>207.1654</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="n">
+        <v>145.6667</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45372</v>
+        <v>45358</v>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>268.6699</v>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>266.8079</v>
-      </c>
-      <c r="F27" t="n">
-        <v>299.4984</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>210.9954</v>
-      </c>
-      <c r="I27" t="n">
-        <v>219.8759</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>210.3353</v>
+        <v>395.8868</v>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>214.9171</v>
-      </c>
-      <c r="N27" t="n">
-        <v>207.6279</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>426.1357</v>
+      </c>
       <c r="P27" t="n">
-        <v>82.93689999999999</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>261.6165</v>
-      </c>
+        <v>391.1858</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>391.4357</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>406.7132</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="n">
+        <v>153.7853</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45377</v>
+        <v>45370</v>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>271.2137</v>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>109.423</v>
-      </c>
-      <c r="F28" t="n">
-        <v>139.952</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>116.8578</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>328.4411</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>113.0785</v>
-      </c>
-      <c r="N28" t="n">
-        <v>118.9551</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>49.0552</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>132.5524</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>298.7625</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>321.7701</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>285.4398</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="n">
+        <v>292.3509</v>
+      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>311.5433</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>223.5746</v>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="n">
+        <v>103.4088</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B29" t="n">
-        <v>221.591</v>
-      </c>
+        <v>45372</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>207.8684</v>
-      </c>
-      <c r="F29" t="n">
-        <v>199.8691</v>
-      </c>
-      <c r="G29" t="n">
-        <v>174.2081</v>
-      </c>
-      <c r="H29" t="n">
-        <v>191.3381</v>
-      </c>
-      <c r="I29" t="n">
-        <v>223.7558</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>198.5206</v>
+        <v>266.8079</v>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>203.4946</v>
-      </c>
-      <c r="N29" t="n">
-        <v>247.5535</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>76.1053</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>299.4984</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>210.9954</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>219.8759</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>210.3353</v>
+      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>214.9171</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>207.6279</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="n">
+        <v>82.93689999999999</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>261.6165</v>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B30" t="n">
-        <v>288.2265</v>
-      </c>
+        <v>45377</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>86.7341</v>
-      </c>
-      <c r="E30" t="n">
-        <v>224.2231</v>
-      </c>
-      <c r="F30" t="n">
-        <v>276.8797</v>
-      </c>
-      <c r="G30" t="n">
-        <v>216.314</v>
-      </c>
-      <c r="H30" t="n">
-        <v>238.518</v>
-      </c>
-      <c r="I30" t="n">
-        <v>227.3917</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>285.6808</v>
+        <v>109.423</v>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>300.3458</v>
-      </c>
-      <c r="N30" t="n">
-        <v>270.9091</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>106.6865</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>279.1244</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>139.952</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>116.8578</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>113.0785</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>118.9551</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>49.0552</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>132.5524</v>
+      </c>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45386</v>
+        <v>45379</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>224.7491</v>
-      </c>
-      <c r="E31" t="n">
-        <v>126.1153</v>
-      </c>
+      <c r="C31" t="n">
+        <v>221.591</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>137.9561</v>
-      </c>
-      <c r="H31" t="n">
-        <v>141.7231</v>
-      </c>
-      <c r="I31" t="n">
-        <v>129.3131</v>
-      </c>
-      <c r="J31" t="n">
-        <v>324.214</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>207.8684</v>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>145.856</v>
-      </c>
-      <c r="N31" t="n">
-        <v>141.3048</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>199.8691</v>
+      </c>
       <c r="P31" t="n">
-        <v>57.6471</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>109.2073</v>
-      </c>
+        <v>174.2081</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>191.3381</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>223.7558</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>198.5206</v>
+      </c>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>203.4946</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>247.5535</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="n">
+        <v>76.1053</v>
+      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45391</v>
+        <v>45384</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>313.6494</v>
-      </c>
-      <c r="E32" t="n">
-        <v>331.2416</v>
-      </c>
-      <c r="F32" t="n">
-        <v>360.9814</v>
-      </c>
-      <c r="G32" t="n">
-        <v>318.4385</v>
-      </c>
+      <c r="C32" t="n">
+        <v>288.2265</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>336.1065</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>86.7341</v>
+      </c>
       <c r="K32" t="n">
-        <v>334.3183</v>
+        <v>224.2231</v>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>341.28</v>
-      </c>
-      <c r="N32" t="n">
-        <v>306.8128</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>276.8797</v>
+      </c>
       <c r="P32" t="n">
-        <v>133.5986</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>325.0632</v>
-      </c>
+        <v>216.314</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>238.518</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>227.3917</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>285.6808</v>
+      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="n">
+        <v>300.3458</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>270.9091</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>106.6865</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>279.1244</v>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45393</v>
+        <v>45386</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>152.9905</v>
-      </c>
-      <c r="E33" t="n">
-        <v>147.7678</v>
-      </c>
-      <c r="F33" t="n">
-        <v>159.5413</v>
-      </c>
-      <c r="G33" t="n">
-        <v>154.8908</v>
-      </c>
-      <c r="H33" t="n">
-        <v>79.8342</v>
-      </c>
-      <c r="I33" t="n">
-        <v>154.3879</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>159.8006</v>
+        <v>224.7491</v>
       </c>
       <c r="K33" t="n">
-        <v>105.4631</v>
+        <v>126.1153</v>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>178.7404</v>
-      </c>
-      <c r="N33" t="n">
-        <v>130.7711</v>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>62.2538</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>158.6591</v>
-      </c>
+        <v>137.9561</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>141.7231</v>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>129.3131</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="n">
+        <v>324.214</v>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="n">
+        <v>145.856</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>141.3048</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="n">
+        <v>57.6471</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>109.2073</v>
+      </c>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45398</v>
-      </c>
-      <c r="B34" t="n">
-        <v>353.2948</v>
-      </c>
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
-        <v>328.7194</v>
-      </c>
-      <c r="E34" t="n">
-        <v>345.9477</v>
-      </c>
-      <c r="F34" t="n">
-        <v>344.8773</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
-        <v>314.1909</v>
-      </c>
-      <c r="I34" t="n">
-        <v>336.5618</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>313.6494</v>
+      </c>
       <c r="K34" t="n">
-        <v>357.9235</v>
+        <v>331.2416</v>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>337.5042</v>
-      </c>
-      <c r="N34" t="n">
-        <v>322.3121</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>360.9814</v>
+      </c>
       <c r="P34" t="n">
-        <v>103.7265</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>320.4959</v>
-      </c>
+        <v>318.4385</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>336.1065</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>334.3183</v>
+      </c>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="n">
+        <v>341.28</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>306.8128</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="n">
+        <v>133.5986</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>325.0632</v>
+      </c>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45400</v>
+        <v>45393</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>162.9558</v>
-      </c>
-      <c r="F35" t="n">
-        <v>186.4133</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>152.2457</v>
-      </c>
-      <c r="I35" t="n">
-        <v>139.2604</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>152.9905</v>
+      </c>
       <c r="K35" t="n">
-        <v>81.07340000000001</v>
+        <v>147.7678</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>261.3054</v>
-      </c>
-      <c r="N35" t="n">
-        <v>148.207</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>159.5413</v>
+      </c>
       <c r="P35" t="n">
-        <v>62.5528</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>130.36</v>
-      </c>
+        <v>154.8908</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>79.8342</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>154.3879</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="n">
+        <v>159.8006</v>
+      </c>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>105.4631</v>
+      </c>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="n">
+        <v>178.7404</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>130.7711</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="n">
+        <v>62.2538</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>158.6591</v>
+      </c>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45405</v>
-      </c>
-      <c r="B36" t="n">
-        <v>274.036</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>45398</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>353.2948</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>265.2278</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>328.7194</v>
+      </c>
+      <c r="K36" t="n">
+        <v>345.9477</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>344.8773</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>314.1909</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>336.5618</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>357.9235</v>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="n">
+        <v>337.5042</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>322.3121</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="n">
+        <v>103.7265</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>320.4959</v>
+      </c>
+      <c r="AQ36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>162.9558</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>186.4133</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>152.2457</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>139.2604</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>81.07340000000001</v>
+      </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="n">
+        <v>261.3054</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>148.207</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="n">
+        <v>62.5528</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>130.36</v>
+      </c>
+      <c r="AQ37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>274.036</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>265.2278</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="n">
         <v>267.2983</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="n">
         <v>212.8202</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="n">
         <v>252.9684</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AK38" t="n">
         <v>181.4309</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="n">
         <v>81.1754</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45423</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>637.2963</v>
+      </c>
+      <c r="E39" t="n">
+        <v>526.7917</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>447.5202</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>293.2475</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>554.7588</v>
+      </c>
+      <c r="R39" t="n">
+        <v>476.3103</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>548.0519</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>541.422</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>460.1818</v>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>655.3962</v>
+      </c>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="n">
+        <v>650.3776</v>
+      </c>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
